--- a/biology/Zoologie/Fabrosaurus/Fabrosaurus.xlsx
+++ b/biology/Zoologie/Fabrosaurus/Fabrosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fabrosaurus était un genre de dinosaure herbivore qui a vécu au Jurassique inférieur (Hettangien à Sinémurien il y a entre 199 à 189 millions d'années. Le seul reste fossile connu de celui-ci est un morceau de mandibule avec trois dents, Fabrosaurus est un nomen dubium et serait peut-être synonyme de Lesothosaurus[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabrosaurus était un genre de dinosaure herbivore qui a vécu au Jurassique inférieur (Hettangien à Sinémurien il y a entre 199 à 189 millions d'années. Le seul reste fossile connu de celui-ci est un morceau de mandibule avec trois dents, Fabrosaurus est un nomen dubium et serait peut-être synonyme de Lesothosaurus.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fabrosaurus  signifie « lézard de Fabre » en l'honneur de Jean Fabre, un géologue français collègue de Ginsburg lors de l'expédition qui a découvert le fossile dans le Basutoland, en Afrique du Sud ; le nom provient aussi du grec sauros "lézard".
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fabrosaurus mesurait environ 1 mètre de long. C'est à peu près tout ce qu'on peut déduire de ses maigres restes. Il a été nommé par le paléontologue français Léonard Ginsburg en 1964. L'espèce type, Fabrosaurus australis, rappelle l'origine géographique (Afrique australe) du gisement de fossiles du Lesotho où il a été découvert.
 </t>
